--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MotheoThozamileMadel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MotheoThozamileMadel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF6AC1CC-FDA9-4838-85EC-74F124F0883C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CD7965-3829-405B-B36F-B4E402A06EAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{B1319598-8C9D-4776-A8A0-4C704781903F}"/>
   </bookViews>
@@ -134,11 +134,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,132 +466,304 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E818441C-2ABE-4F57-8B6D-E70FE6C82515}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="A6" sqref="A6:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" t="s">
+    <row r="1" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="1">
+        <v>200000</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="1">
+        <v>8000</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="1">
+        <v>15000</v>
+      </c>
+      <c r="D8" s="1">
+        <v>15000</v>
+      </c>
+      <c r="E8" s="1">
+        <v>15000</v>
+      </c>
+      <c r="F8" s="1">
+        <v>15000</v>
+      </c>
+      <c r="G8" s="1">
+        <v>15000</v>
+      </c>
+      <c r="H8" s="1">
+        <v>15000</v>
+      </c>
+      <c r="I8" s="1">
+        <v>15000</v>
+      </c>
+      <c r="J8" s="1">
+        <v>15000</v>
+      </c>
+      <c r="K8" s="1">
+        <v>15000</v>
+      </c>
+      <c r="L8" s="1">
+        <v>15000</v>
+      </c>
+      <c r="M8" s="1">
+        <v>15000</v>
+      </c>
+      <c r="N8" s="1">
+        <v>15000</v>
+      </c>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A6:N6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
